--- a/data/trans_bre/P1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -0,03</t>
+          <t>-4,29; -0,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,97</t>
+          <t>0,39; 4,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 4,34</t>
+          <t>-3,45; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,96</t>
+          <t>-2,75; 6,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 3,65</t>
+          <t>-80,96; 8,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 636,63</t>
+          <t>0,67; 598,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 87,72</t>
+          <t>-39,54; 82,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 337,66</t>
+          <t>-50,8; 376,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,68</t>
+          <t>-5,61; -0,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -2,48</t>
+          <t>-8,31; -2,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -0,05</t>
+          <t>-6,65; 0,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -1,32</t>
+          <t>-11,92; -2,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,19; -12,26</t>
+          <t>-67,17; -7,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,7; -28,06</t>
+          <t>-69,23; -24,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -0,25</t>
+          <t>-53,62; 2,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,94; -10,67</t>
+          <t>-62,91; -14,85</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -2,04</t>
+          <t>-6,48; -1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -1,15</t>
+          <t>-4,99; -1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -3,57</t>
+          <t>-9,31; -3,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -5,9</t>
+          <t>-13,38; -6,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,27; -39,63</t>
+          <t>-81,94; -37,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -28,09</t>
+          <t>-83,83; -28,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -37,4</t>
+          <t>-72,78; -38,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,48; -44,59</t>
+          <t>-72,83; -45,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,96</t>
+          <t>-4,37; 1,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -0,96</t>
+          <t>-7,13; -0,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -3,75</t>
+          <t>-10,79; -4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -6,75</t>
+          <t>-15,89; -7,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 45,46</t>
+          <t>-56,51; 40,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,86; -12,85</t>
+          <t>-65,74; -12,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,78; -33,26</t>
+          <t>-72,29; -37,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,61; -47,59</t>
+          <t>-71,53; -47,35</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,73</t>
+          <t>-2,24; 5,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,46</t>
+          <t>-2,39; 5,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,4</t>
+          <t>-0,82; 8,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,72</t>
+          <t>-6,67; 1,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 119,89</t>
+          <t>-25,5; 115,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 106,6</t>
+          <t>-28,42; 120,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 87,23</t>
+          <t>-6,73; 92,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 9,2</t>
+          <t>-29,85; 9,96</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 18,72</t>
+          <t>9,05; 18,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 19,18</t>
+          <t>9,24; 19,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 17,38</t>
+          <t>7,69; 17,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 20,83</t>
+          <t>2,06; 20,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,77; 159,3</t>
+          <t>53,03; 160,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,23; 132,47</t>
+          <t>44,62; 131,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,31; 92,5</t>
+          <t>32,59; 94,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 84,17</t>
+          <t>8,11; 83,74</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>-0,05; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,96</t>
+          <t>0,27; 2,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-1,06; 2,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,3</t>
+          <t>-2,67; 1,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>-0,05; 43,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,4</t>
+          <t>2,99; 39,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,39</t>
+          <t>-7,96; 19,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 7,62</t>
+          <t>-14,38; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,01</t>
+          <t>-4,29; 0,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,8</t>
+          <t>0,19; 4,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,07</t>
+          <t>-3,41; 3,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,96; 8,61</t>
+          <t>-80,99; 16,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 598,02</t>
+          <t>-5,04; 637,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 82,33</t>
+          <t>-39,12; 79,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,66</t>
+          <t>-5,53; -0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -2,1</t>
+          <t>-8,61; -2,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,01</t>
+          <t>-6,42; -0,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,17; -7,03</t>
+          <t>-65,51; -8,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,23; -24,78</t>
+          <t>-70,22; -25,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,62; 2,91</t>
+          <t>-52,34; -0,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -1,87</t>
+          <t>-6,42; -2,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,35</t>
+          <t>-4,84; -1,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -3,59</t>
+          <t>-9,65; -3,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,94; -37,2</t>
+          <t>-82,13; -35,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,83; -28,22</t>
+          <t>-83,79; -24,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,78; -38,49</t>
+          <t>-73,35; -37,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,75</t>
+          <t>-4,2; 1,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -0,98</t>
+          <t>-7,15; -0,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,79; -4,11</t>
+          <t>-10,66; -3,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,51; 40,88</t>
+          <t>-54,88; 44,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,74; -12,22</t>
+          <t>-66,27; -9,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,29; -37,13</t>
+          <t>-71,82; -35,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,83</t>
+          <t>-2,19; 5,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,85</t>
+          <t>-2,11; 5,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,36</t>
+          <t>-0,6; 8,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 115,55</t>
+          <t>-24,48; 106,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 120,7</t>
+          <t>-23,95; 100,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 92,87</t>
+          <t>-5,71; 87,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,05; 18,81</t>
+          <t>9,38; 18,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,24; 19,18</t>
+          <t>8,61; 18,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 17,35</t>
+          <t>7,17; 16,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,03; 160,13</t>
+          <t>56,91; 155,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,62; 131,26</t>
+          <t>43,65; 132,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,59; 94,24</t>
+          <t>32,3; 90,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,8</t>
+          <t>0,07; 2,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,98</t>
+          <t>0,22; 3,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,3</t>
+          <t>-1,0; 2,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 43,38</t>
+          <t>0,47; 43,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 39,28</t>
+          <t>2,54; 40,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 19,18</t>
+          <t>-7,64; 19,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,08</t>
+          <t>-4,38; -0,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,86</t>
+          <t>0,37; 4,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,93</t>
+          <t>-3,51; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,04</t>
+          <t>-2,53; 5,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,99; 16,84</t>
+          <t>-80,02; 3,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 637,31</t>
+          <t>1,04; 636,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 79,89</t>
+          <t>-38,75; 87,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 376,61</t>
+          <t>-52,4; 337,66</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -0,59</t>
+          <t>-5,61; -0,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -2,62</t>
+          <t>-8,49; -2,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -0,15</t>
+          <t>-6,67; -0,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -2,01</t>
+          <t>-12,35; -1,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,51; -8,42</t>
+          <t>-68,19; -12,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,22; -25,6</t>
+          <t>-70,7; -28,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -0,78</t>
+          <t>-53,34; -0,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -14,85</t>
+          <t>-63,94; -10,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -2,01</t>
+          <t>-6,7; -2,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -1,01</t>
+          <t>-5,01; -1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -3,71</t>
+          <t>-9,43; -3,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -6,08</t>
+          <t>-13,63; -5,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,13; -35,13</t>
+          <t>-83,27; -39,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,79; -24,67</t>
+          <t>-84,55; -28,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,35; -37,08</t>
+          <t>-73,36; -37,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-72,83; -45,24</t>
+          <t>-74,48; -44,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,88</t>
+          <t>-4,27; 1,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -0,72</t>
+          <t>-7,08; -0,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -3,82</t>
+          <t>-10,63; -3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -7,3</t>
+          <t>-15,73; -6,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 44,56</t>
+          <t>-54,72; 45,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,27; -9,21</t>
+          <t>-66,86; -12,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,82; -35,38</t>
+          <t>-71,78; -33,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,53; -47,35</t>
+          <t>-71,61; -47,59</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,44</t>
+          <t>-2,11; 5,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,44</t>
+          <t>-2,24; 5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 8,49</t>
+          <t>-0,99; 8,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,71</t>
+          <t>-6,64; 1,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 106,73</t>
+          <t>-23,62; 119,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 100,56</t>
+          <t>-24,59; 106,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 87,26</t>
+          <t>-8,46; 87,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 9,96</t>
+          <t>-29,88; 9,2</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,23</t>
+          <t>9,52; 18,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 18,82</t>
+          <t>9,17; 19,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 16,61</t>
+          <t>7,29; 17,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 20,68</t>
+          <t>2,43; 20,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,91; 155,41</t>
+          <t>56,77; 159,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,65; 132,69</t>
+          <t>45,23; 132,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,3; 90,99</t>
+          <t>31,31; 92,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 83,74</t>
+          <t>9,53; 84,17</t>
         </is>
       </c>
     </row>
@@ -1273,37 +1273,37 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,03</t>
+          <t>0,1; 2,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,33</t>
+          <t>-0,88; 2,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,39</t>
+          <t>-2,6; 1,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 43,25</t>
+          <t>0,89; 44,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 40,07</t>
+          <t>1,07; 39,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 19,87</t>
+          <t>-6,68; 20,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 8,3</t>
+          <t>-13,93; 7,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,96</t>
+          <t>-4,62; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 337,66</t>
+          <t>-69,34; 268,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-43,11%</t>
+          <t>-51,13%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -1,32</t>
+          <t>-14,03; -3,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,94; -10,67</t>
+          <t>-73,06; -23,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-61,7%</t>
+          <t>-63,62%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -5,9</t>
+          <t>-13,97; -6,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,48; -44,59</t>
+          <t>-76,57; -45,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-62,9%</t>
+          <t>-53,69%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -6,75</t>
+          <t>-14,82; 0,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,61; -47,59</t>
+          <t>-69,59; 8,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>-14,34%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,72</t>
+          <t>-6,93; 1,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 9,2</t>
+          <t>-30,98; 8,01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,05</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>134,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>55,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,52; 18,72</t>
+          <t>7,07; 18,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 19,18</t>
+          <t>4,92; 17,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 17,38</t>
+          <t>2,69; 14,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 20,83</t>
+          <t>-14,82; 12,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,77; 159,3</t>
+          <t>57,21; 266,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,23; 132,47</t>
+          <t>31,09; 188,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,31; 92,5</t>
+          <t>14,3; 114,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 84,17</t>
+          <t>-60,93; 59,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>14,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>24,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>79,34%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,05; 21,46</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 22,01</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 21,91</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18,84; 30,1</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 129,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 118,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,23; 96,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54,01; 110,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,07; 2,84</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,1; 2,96</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,88; 2,41</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 1,3</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 2,79</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,89; 44,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,07; 39,4</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-6,68; 20,39</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; 7,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-19,72; 17,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; -0,03</t>
+          <t>-4,23; 0,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,97</t>
+          <t>0,21; 4,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 4,34</t>
+          <t>-4,05; 3,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,78</t>
+          <t>-4,87; 4,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,02; 3,65</t>
+          <t>-78,2; 11,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 636,63</t>
+          <t>-7,64; 607,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 87,72</t>
+          <t>-42,82; 72,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,34; 268,32</t>
+          <t>-66,21; 263,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,68</t>
+          <t>-5,38; -0,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -2,48</t>
+          <t>-8,66; -2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -0,05</t>
+          <t>-7,1; 0,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -3,01</t>
+          <t>-13,97; -2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,19; -12,26</t>
+          <t>-65,72; -9,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,7; -28,06</t>
+          <t>-72,78; -31,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -0,25</t>
+          <t>-54,86; 1,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,06; -23,97</t>
+          <t>-72,37; -22,68</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -2,04</t>
+          <t>-6,36; -1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; -1,15</t>
+          <t>-5,15; -1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -3,57</t>
+          <t>-9,51; -3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,97; -6,31</t>
+          <t>-13,68; -6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,27; -39,63</t>
+          <t>-81,83; -37,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -28,09</t>
+          <t>-84,72; -29,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -37,4</t>
+          <t>-73,37; -38,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-76,57; -45,73</t>
+          <t>-76,11; -48,8</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,96</t>
+          <t>-4,51; 1,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -0,96</t>
+          <t>-7,07; -0,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -3,75</t>
+          <t>-10,76; -3,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 0,87</t>
+          <t>-14,77; 0,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 45,46</t>
+          <t>-56,62; 35,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,86; -12,85</t>
+          <t>-67,31; -10,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,78; -33,26</t>
+          <t>-72,62; -34,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 8,68</t>
+          <t>-69,63; 7,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,73</t>
+          <t>-2,06; 5,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,46</t>
+          <t>-2,06; 5,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 8,4</t>
+          <t>-0,82; 8,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,5</t>
+          <t>-7,08; 1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 119,89</t>
+          <t>-23,89; 106,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 106,6</t>
+          <t>-24,05; 114,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 87,23</t>
+          <t>-6,35; 90,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 8,01</t>
+          <t>-31,89; 6,43</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 18,08</t>
+          <t>6,65; 17,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 17,58</t>
+          <t>4,89; 17,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 14,78</t>
+          <t>3,17; 14,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,82; 12,36</t>
+          <t>-14,44; 12,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,21; 266,88</t>
+          <t>56,54; 259,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,09; 188,29</t>
+          <t>30,95; 195,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,3; 114,44</t>
+          <t>16,56; 115,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,93; 59,07</t>
+          <t>-59,42; 59,91</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 21,46</t>
+          <t>5,64; 21,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 22,01</t>
+          <t>7,21; 21,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 21,91</t>
+          <t>6,72; 21,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,84; 30,1</t>
+          <t>18,49; 30,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,22; 129,72</t>
+          <t>19,83; 132,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 118,19</t>
+          <t>26,15; 117,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,23; 96,31</t>
+          <t>21,38; 94,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,01; 110,51</t>
+          <t>51,36; 108,05</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>0,11; 2,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,96</t>
+          <t>0,06; 2,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-1,18; 2,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,79</t>
+          <t>-3,79; 2,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>1,9; 42,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,4</t>
+          <t>0,53; 38,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,39</t>
+          <t>-8,67; 20,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 17,9</t>
+          <t>-20,94; 18,47</t>
         </is>
       </c>
     </row>
